--- a/data/trans_orig/DC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DC-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>111115</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94441</v>
+        <v>92409</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130559</v>
+        <v>131818</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1601047499240962</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1360797015317178</v>
+        <v>0.1331513685023274</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1881228163700736</v>
+        <v>0.1899365187335844</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -765,19 +765,19 @@
         <v>148835</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>128729</v>
+        <v>129239</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>170362</v>
+        <v>170121</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2162195787214749</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1870102027034809</v>
+        <v>0.1877519659944322</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2474933462061236</v>
+        <v>0.2471431145547452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>263</v>
@@ -786,19 +786,19 @@
         <v>259950</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>231074</v>
+        <v>231833</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>290117</v>
+        <v>288815</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1880472627198751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1671583958571735</v>
+        <v>0.16770803039059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2098704220714492</v>
+        <v>0.2089282065142411</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>582897</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>563453</v>
+        <v>562194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>599571</v>
+        <v>601603</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8398952500759037</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8118771836299263</v>
+        <v>0.8100634812664155</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8639202984682822</v>
+        <v>0.8668486314976726</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>544</v>
@@ -836,19 +836,19 @@
         <v>539516</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>517989</v>
+        <v>518230</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>559622</v>
+        <v>559112</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7837804212785251</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7525066537938763</v>
+        <v>0.7528568854452548</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8129897972965191</v>
+        <v>0.8122480340055678</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1116</v>
@@ -857,19 +857,19 @@
         <v>1122413</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1092246</v>
+        <v>1093548</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1151289</v>
+        <v>1150530</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.811952737280125</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7901295779285508</v>
+        <v>0.791071793485759</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8328416041428265</v>
+        <v>0.83229196960941</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>140658</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>119023</v>
+        <v>120912</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162843</v>
+        <v>164629</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1462443533188916</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1237504530905868</v>
+        <v>0.1257142182861089</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1693109017969233</v>
+        <v>0.1711679487461305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>231</v>
@@ -982,19 +982,19 @@
         <v>250743</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>224926</v>
+        <v>225125</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>280158</v>
+        <v>280976</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2589270316671136</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2322668990702816</v>
+        <v>0.2324730260207098</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2893016436510929</v>
+        <v>0.290147153579914</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>364</v>
@@ -1003,19 +1003,19 @@
         <v>391401</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>358245</v>
+        <v>358396</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>428331</v>
+        <v>431213</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2027781403031475</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1856005098330306</v>
+        <v>0.1856789239658251</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2219109376369983</v>
+        <v>0.2234038862151056</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>821142</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>798957</v>
+        <v>797171</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>842777</v>
+        <v>840888</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8537556466811084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8306890982030767</v>
+        <v>0.8288320512538694</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8762495469094134</v>
+        <v>0.874285781713891</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>677</v>
@@ -1053,19 +1053,19 @@
         <v>717650</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>688235</v>
+        <v>687417</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>743467</v>
+        <v>743268</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7410729683328864</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7106983563489071</v>
+        <v>0.7098528464200859</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7677331009297185</v>
+        <v>0.7675269739792902</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1440</v>
@@ -1074,19 +1074,19 @@
         <v>1538792</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1501862</v>
+        <v>1498980</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1571948</v>
+        <v>1571797</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7972218596968526</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7780890623630013</v>
+        <v>0.776596113784894</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8143994901669694</v>
+        <v>0.8143210760341749</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>144663</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>124172</v>
+        <v>121709</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165968</v>
+        <v>165932</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2132069542385418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1830070335193654</v>
+        <v>0.1793767423870542</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2446067886992715</v>
+        <v>0.2445539709213684</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>250</v>
@@ -1199,19 +1199,19 @@
         <v>239554</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>214065</v>
+        <v>217387</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>265022</v>
+        <v>263176</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3503060588057251</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3130336927748535</v>
+        <v>0.3178915415291169</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3875491254297685</v>
+        <v>0.384849844531511</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>392</v>
@@ -1220,19 +1220,19 @@
         <v>384216</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>350932</v>
+        <v>350270</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>418224</v>
+        <v>415006</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2820248036068005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2575929112665273</v>
+        <v>0.257107118463427</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3069869072311238</v>
+        <v>0.3046247956831878</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>533846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>512541</v>
+        <v>512577</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>554337</v>
+        <v>556800</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7867930457614581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7553932113007286</v>
+        <v>0.7554460290786317</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8169929664806346</v>
+        <v>0.8206232576129459</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>446</v>
@@ -1270,19 +1270,19 @@
         <v>444287</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>418819</v>
+        <v>420665</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>469776</v>
+        <v>466454</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6496939411942749</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6124508745702314</v>
+        <v>0.6151501554684889</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6869663072251464</v>
+        <v>0.682108458470883</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>945</v>
@@ -1291,19 +1291,19 @@
         <v>978134</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>944126</v>
+        <v>947344</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1011418</v>
+        <v>1012080</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7179751963931995</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6930130927688763</v>
+        <v>0.6953752043168121</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7424070887334727</v>
+        <v>0.7428928815365728</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>177297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>155728</v>
+        <v>154351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>201144</v>
+        <v>201785</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1881692785708007</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.165277462083208</v>
+        <v>0.1638162004500384</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2134784420454501</v>
+        <v>0.2141588117562483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>292</v>
@@ -1416,19 +1416,19 @@
         <v>302465</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>273296</v>
+        <v>272698</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>332450</v>
+        <v>331756</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2912201067090017</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2631353523450621</v>
+        <v>0.2625601028798739</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3200905381706097</v>
+        <v>0.3194225986142518</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>487</v>
@@ -1437,19 +1437,19 @@
         <v>479762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>443785</v>
+        <v>442710</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>524125</v>
+        <v>517917</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2422019848193951</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2240394374296471</v>
+        <v>0.2234970164917034</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2645983103812379</v>
+        <v>0.2614642831855399</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>764925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>741078</v>
+        <v>740437</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>786494</v>
+        <v>787871</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8118307214291993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7865215579545498</v>
+        <v>0.7858411882437515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8347225379167919</v>
+        <v>0.8361837995499615</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>705</v>
@@ -1487,19 +1487,19 @@
         <v>736147</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>706162</v>
+        <v>706856</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>765316</v>
+        <v>765914</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7087798932909983</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6799094618293903</v>
+        <v>0.6805774013857483</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7368646476549379</v>
+        <v>0.7374398971201261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1504</v>
@@ -1508,19 +1508,19 @@
         <v>1501072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1456709</v>
+        <v>1462917</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1537049</v>
+        <v>1538124</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7577980151806049</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7354016896187618</v>
+        <v>0.73853571681446</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7759605625703528</v>
+        <v>0.7765029835082965</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>573733</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>530441</v>
+        <v>532086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>620210</v>
+        <v>619832</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1751029989024037</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1618905206920286</v>
+        <v>0.1623923853002687</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1892878605079261</v>
+        <v>0.1891724274415356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>925</v>
@@ -1633,19 +1633,19 @@
         <v>941596</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>884138</v>
+        <v>891804</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>990942</v>
+        <v>994136</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2786450258329519</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2616413171511848</v>
+        <v>0.2639099896210026</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2932478552859332</v>
+        <v>0.2941929418440574</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1506</v>
@@ -1654,19 +1654,19 @@
         <v>1515329</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1448835</v>
+        <v>1445443</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1590302</v>
+        <v>1581967</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2276724961502341</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2176820189290559</v>
+        <v>0.2171723100018029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2389368517180863</v>
+        <v>0.2376845745391781</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2702810</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2656333</v>
+        <v>2656711</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2746102</v>
+        <v>2744457</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8248970010975962</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8107121394920738</v>
+        <v>0.8108275725584642</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8381094793079711</v>
+        <v>0.8376076146997313</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2372</v>
@@ -1704,19 +1704,19 @@
         <v>2437601</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2388255</v>
+        <v>2385061</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2495059</v>
+        <v>2487393</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7213549741670481</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7067521447140668</v>
+        <v>0.7058070581559426</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7383586828488152</v>
+        <v>0.7360900103789972</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5005</v>
@@ -1725,19 +1725,19 @@
         <v>5140412</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5065439</v>
+        <v>5073774</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5206906</v>
+        <v>5210298</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7723275038497659</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7610631482819139</v>
+        <v>0.762315425460822</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.782317981070945</v>
+        <v>0.7828276899981977</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>87000</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71010</v>
+        <v>70631</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104751</v>
+        <v>106267</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1236730492060227</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1009423730273634</v>
+        <v>0.1004034802887099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1489061777792613</v>
+        <v>0.1510617802459007</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>166</v>
@@ -2090,19 +2090,19 @@
         <v>179891</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>156374</v>
+        <v>159048</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>206776</v>
+        <v>204381</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2580749461270992</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2243361383725511</v>
+        <v>0.228172377923058</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2966448181733835</v>
+        <v>0.293207889952791</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>251</v>
@@ -2111,19 +2111,19 @@
         <v>266891</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>238295</v>
+        <v>239941</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>299373</v>
+        <v>298843</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1905659964773122</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1701477385883288</v>
+        <v>0.1713231462629871</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2137586856235408</v>
+        <v>0.2133803455603366</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>616469</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>598718</v>
+        <v>597202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>632459</v>
+        <v>632838</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8763269507939773</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8510938222207386</v>
+        <v>0.8489382197540992</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8990576269726366</v>
+        <v>0.8995965197112901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>484</v>
@@ -2161,19 +2161,19 @@
         <v>517159</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>490274</v>
+        <v>492669</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>540676</v>
+        <v>538002</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7419250538729008</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7033551818266166</v>
+        <v>0.7067921100472093</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7756638616274489</v>
+        <v>0.7718276220769422</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1073</v>
@@ -2182,19 +2182,19 @@
         <v>1133628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1101146</v>
+        <v>1101676</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1162224</v>
+        <v>1160578</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8094340035226878</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7862413143764589</v>
+        <v>0.7866196544396629</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8298522614116712</v>
+        <v>0.8286768537370128</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>117886</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97907</v>
+        <v>97804</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140952</v>
+        <v>139687</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1158080359842153</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09618100002254977</v>
+        <v>0.09607918486669388</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.138467332686781</v>
+        <v>0.1372238354107734</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>209</v>
@@ -2307,19 +2307,19 @@
         <v>227738</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>202967</v>
+        <v>201661</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>254881</v>
+        <v>257336</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2206370947808827</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1966386014002089</v>
+        <v>0.1953732314642765</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.246933631542378</v>
+        <v>0.249311923647879</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>317</v>
@@ -2328,19 +2328,19 @@
         <v>345625</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>314178</v>
+        <v>312867</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>379605</v>
+        <v>382059</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1685865514561318</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.153247893041872</v>
+        <v>0.1526083394465623</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1851613706088298</v>
+        <v>0.1863585322185473</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>900061</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>876995</v>
+        <v>878260</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>920040</v>
+        <v>920143</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8841919640157847</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8615326673132192</v>
+        <v>0.8627761645892265</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9038189999774502</v>
+        <v>0.9039208151333061</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>731</v>
@@ -2378,19 +2378,19 @@
         <v>804446</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>777303</v>
+        <v>774848</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>829217</v>
+        <v>830523</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7793629052191173</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7530663684576222</v>
+        <v>0.7506880763521208</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8033613985997912</v>
+        <v>0.8046267685357236</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1559</v>
@@ -2399,19 +2399,19 @@
         <v>1704506</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1670526</v>
+        <v>1668072</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1735953</v>
+        <v>1737264</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8314134485438682</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8148386293911701</v>
+        <v>0.8136414677814527</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.846752106958128</v>
+        <v>0.847391660553438</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>58482</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45544</v>
+        <v>45318</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74745</v>
+        <v>78004</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07719196050432457</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0601138337224638</v>
+        <v>0.05981588781849251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09865722777055372</v>
+        <v>0.1029591153316498</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>170</v>
@@ -2524,19 +2524,19 @@
         <v>183264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>158999</v>
+        <v>159899</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>209858</v>
+        <v>207953</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2358078259234662</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2045865677975539</v>
+        <v>0.2057442184755028</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2700273290584659</v>
+        <v>0.2675759575364322</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>222</v>
@@ -2545,19 +2545,19 @@
         <v>241746</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>213505</v>
+        <v>211633</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>274530</v>
+        <v>272675</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.157510140587474</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1391097264273826</v>
+        <v>0.1378897687208052</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.178870787891305</v>
+        <v>0.1776620413179586</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>699141</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>682878</v>
+        <v>679619</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>712079</v>
+        <v>712305</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9228080394956755</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9013427722294468</v>
+        <v>0.8970408846683502</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9398861662775364</v>
+        <v>0.9401841121815074</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>535</v>
@@ -2595,19 +2595,19 @@
         <v>593910</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>567316</v>
+        <v>569221</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>618175</v>
+        <v>617275</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7641921740765337</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7299726709415342</v>
+        <v>0.7324240424635681</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7954134322024466</v>
+        <v>0.7942557815244972</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1172</v>
@@ -2616,19 +2616,19 @@
         <v>1293051</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1260267</v>
+        <v>1262122</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1321292</v>
+        <v>1323164</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.842489859412526</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8211292121086949</v>
+        <v>0.8223379586820413</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8608902735726174</v>
+        <v>0.8621102312791948</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>90909</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72587</v>
+        <v>74957</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110542</v>
+        <v>110510</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09592195117585035</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07659011722513367</v>
+        <v>0.07908989533591294</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1166379822679229</v>
+        <v>0.1166037051278275</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>242</v>
@@ -2741,19 +2741,19 @@
         <v>257390</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>229701</v>
+        <v>233213</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>286067</v>
+        <v>289203</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2446900102227137</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2183670784934489</v>
+        <v>0.2217066198684447</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2719520007156885</v>
+        <v>0.2749333797817769</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>329</v>
@@ -2762,19 +2762,19 @@
         <v>348299</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>312830</v>
+        <v>314573</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>381955</v>
+        <v>383132</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1741806585199721</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1564433721462121</v>
+        <v>0.1573150427845152</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1910120305943155</v>
+        <v>0.1916006195997699</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>856830</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>837197</v>
+        <v>837229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>875152</v>
+        <v>872782</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9040780488241497</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8833620177320771</v>
+        <v>0.8833962948721725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9234098827748664</v>
+        <v>0.920910104664087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>761</v>
@@ -2812,19 +2812,19 @@
         <v>794511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>765834</v>
+        <v>762698</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>822200</v>
+        <v>818688</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7553099897772863</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7280479992843116</v>
+        <v>0.725066620218223</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7816329215065512</v>
+        <v>0.7782933801315552</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1584</v>
@@ -2833,19 +2833,19 @@
         <v>1651341</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1617685</v>
+        <v>1616508</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1686810</v>
+        <v>1685067</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.825819341480028</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8089879694056846</v>
+        <v>0.8083993804002301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8435566278537878</v>
+        <v>0.8426849572154848</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>354278</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>317820</v>
+        <v>319317</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>387141</v>
+        <v>394580</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.103385153171571</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09274593235727234</v>
+        <v>0.09318274472827312</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1129752850268261</v>
+        <v>0.1151460369751412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>787</v>
@@ -2958,19 +2958,19 @@
         <v>848283</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>801636</v>
+        <v>797929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>899135</v>
+        <v>901168</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2383948661568715</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2252857143639886</v>
+        <v>0.2242438238234551</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2526860647068042</v>
+        <v>0.2532573445066812</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1119</v>
@@ -2979,19 +2979,19 @@
         <v>1202561</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1135639</v>
+        <v>1136064</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1265557</v>
+        <v>1264872</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1721611359910063</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1625804162837814</v>
+        <v>0.1626412722410276</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1811797765770529</v>
+        <v>0.1810818175281363</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3072501</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3039638</v>
+        <v>3032199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3108959</v>
+        <v>3107462</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.896614846828429</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8870247149731739</v>
+        <v>0.8848539630248589</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9072540676427276</v>
+        <v>0.9068172552717269</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2511</v>
@@ -3029,19 +3029,19 @@
         <v>2710026</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2659174</v>
+        <v>2657141</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2756673</v>
+        <v>2760380</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7616051338431286</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7473139352931958</v>
+        <v>0.7467426554933188</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7747142856360114</v>
+        <v>0.775756176176545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5388</v>
@@ -3050,19 +3050,19 @@
         <v>5782527</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5719531</v>
+        <v>5720216</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5849449</v>
+        <v>5849024</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8278388640089938</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.818820223422947</v>
+        <v>0.8189181824718638</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8374195837162186</v>
+        <v>0.8373587277589727</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>65926</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50621</v>
+        <v>50986</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83399</v>
+        <v>84036</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09769779853048902</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07501602801448752</v>
+        <v>0.07555749129676242</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1235912154170618</v>
+        <v>0.1245340688463575</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -3415,19 +3415,19 @@
         <v>128949</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110111</v>
+        <v>108181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>149430</v>
+        <v>150199</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1916495700325971</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1636509134919663</v>
+        <v>0.1607829791899807</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2220893012593554</v>
+        <v>0.2232322627525881</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>187</v>
@@ -3436,19 +3436,19 @@
         <v>194876</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168753</v>
+        <v>170874</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220688</v>
+        <v>221913</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1446053278421585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1252211049305086</v>
+        <v>0.1267952314514897</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1637588941297216</v>
+        <v>0.1646682520806384</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>608874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>591401</v>
+        <v>590764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>624179</v>
+        <v>623814</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.902302201469511</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8764087845829389</v>
+        <v>0.8754659311536425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9249839719855126</v>
+        <v>0.9244425087032376</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>543</v>
@@ -3486,19 +3486,19 @@
         <v>543890</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>523409</v>
+        <v>522640</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>562728</v>
+        <v>564658</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8083504299674029</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7779106987406446</v>
+        <v>0.7767677372474119</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8363490865080336</v>
+        <v>0.8392170208100191</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1131</v>
@@ -3507,19 +3507,19 @@
         <v>1152763</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1126951</v>
+        <v>1125726</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1178886</v>
+        <v>1176765</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8553946721578415</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8362411058702787</v>
+        <v>0.8353317479193616</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8747788950694919</v>
+        <v>0.8732047685485103</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>91967</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73938</v>
+        <v>75843</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112547</v>
+        <v>113021</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08994902848107712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07231585550838607</v>
+        <v>0.07417899041487612</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1100777154105671</v>
+        <v>0.110541708113996</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -3632,19 +3632,19 @@
         <v>181136</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>156905</v>
+        <v>156309</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206239</v>
+        <v>208720</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1736825672619892</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1504487238894839</v>
+        <v>0.1498769937896621</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1977531687751257</v>
+        <v>0.2001315198004079</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>250</v>
@@ -3653,19 +3653,19 @@
         <v>273102</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>244040</v>
+        <v>240734</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>308428</v>
+        <v>305936</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1322309904977228</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1181594411851769</v>
+        <v>0.1165586803587775</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1493351435493326</v>
+        <v>0.1481285866452582</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>930464</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>909884</v>
+        <v>909410</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>948493</v>
+        <v>946588</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9100509715189229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8899222845894333</v>
+        <v>0.8894582918860041</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.927684144491614</v>
+        <v>0.9258210095851239</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>814</v>
@@ -3703,19 +3703,19 @@
         <v>861777</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>836674</v>
+        <v>834193</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>886008</v>
+        <v>886604</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8263174327380108</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8022468312248744</v>
+        <v>0.7998684801995921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8495512761105162</v>
+        <v>0.8501230062103379</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1678</v>
@@ -3724,19 +3724,19 @@
         <v>1792242</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1756916</v>
+        <v>1759408</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1821304</v>
+        <v>1824610</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8677690095022772</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.850664856450667</v>
+        <v>0.8518714133547417</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8818405588148231</v>
+        <v>0.8834413196412224</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>63336</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48204</v>
+        <v>48173</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80552</v>
+        <v>79439</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0833861572160237</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06346338001750504</v>
+        <v>0.06342247076642425</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1060526288056537</v>
+        <v>0.1045862888899613</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -3849,19 +3849,19 @@
         <v>113799</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96012</v>
+        <v>92547</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>134206</v>
+        <v>132998</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1449649414215623</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1223069490878931</v>
+        <v>0.1178923052933724</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.170961226604266</v>
+        <v>0.1694220325910844</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>165</v>
@@ -3870,19 +3870,19 @@
         <v>177135</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152738</v>
+        <v>153454</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>205076</v>
+        <v>205226</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1146830428456582</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09888775092559844</v>
+        <v>0.09935133472937292</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.132772981929551</v>
+        <v>0.1328700840997432</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>696216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>679000</v>
+        <v>680113</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>711348</v>
+        <v>711379</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9166138427839763</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8939473711943464</v>
+        <v>0.8954137111100392</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9365366199824949</v>
+        <v>0.9365775292335763</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>631</v>
@@ -3920,19 +3920,19 @@
         <v>671212</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>650805</v>
+        <v>652013</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>688999</v>
+        <v>692464</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8550350585784378</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8290387733957341</v>
+        <v>0.8305779674089154</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8776930509121065</v>
+        <v>0.8821076947066274</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1267</v>
@@ -3941,19 +3941,19 @@
         <v>1367428</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1339487</v>
+        <v>1339337</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1391825</v>
+        <v>1391109</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8853169571543418</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.867227018070449</v>
+        <v>0.8671299159002568</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9011122490744017</v>
+        <v>0.9006486652706271</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>100462</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>82759</v>
+        <v>80779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120171</v>
+        <v>121599</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1071517528729911</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08826960854881097</v>
+        <v>0.08615802151741575</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1281731112105979</v>
+        <v>0.1296958248236393</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>203</v>
@@ -4066,19 +4066,19 @@
         <v>227297</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>198403</v>
+        <v>200865</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>254577</v>
+        <v>257571</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2177631648095413</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1900813301478215</v>
+        <v>0.1924401961744241</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2438995093964222</v>
+        <v>0.2467679907666343</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>299</v>
@@ -4087,19 +4087,19 @@
         <v>327759</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>295351</v>
+        <v>293630</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>364468</v>
+        <v>361138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1654221759358542</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1490659122034919</v>
+        <v>0.1481970846853257</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1839495209218629</v>
+        <v>0.1822689783969589</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>837105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>817396</v>
+        <v>815968</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>854808</v>
+        <v>856788</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8928482471270088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.871826888789402</v>
+        <v>0.8703041751763609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9117303914511891</v>
+        <v>0.9138419784825843</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>756</v>
@@ -4137,19 +4137,19 @@
         <v>816482</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>789202</v>
+        <v>786208</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>845376</v>
+        <v>842914</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7822368351904587</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7561004906035778</v>
+        <v>0.7532320092333656</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8099186698521785</v>
+        <v>0.8075598038255759</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1592</v>
@@ -4158,19 +4158,19 @@
         <v>1653587</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1616878</v>
+        <v>1620208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1685995</v>
+        <v>1687716</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8345778240641458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.816050479078137</v>
+        <v>0.817731021603041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8509340877965081</v>
+        <v>0.8518029153146743</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>321691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>288164</v>
+        <v>287132</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>357070</v>
+        <v>356121</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09477255299218749</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08489511817318612</v>
+        <v>0.08459110705968514</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1051954841745652</v>
+        <v>0.104915893938298</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>594</v>
@@ -4283,19 +4283,19 @@
         <v>651181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>603823</v>
+        <v>605861</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>697543</v>
+        <v>703109</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1837136657317105</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1703530002200377</v>
+        <v>0.1709277758779724</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1967936456061708</v>
+        <v>0.1983637503367362</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>901</v>
@@ -4304,19 +4304,19 @@
         <v>972872</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>911334</v>
+        <v>909429</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1031776</v>
+        <v>1026243</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1402056702677319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1313371026992236</v>
+        <v>0.1310625261834298</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1486946617825156</v>
+        <v>0.1478971751330503</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3072659</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3037280</v>
+        <v>3038229</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3106186</v>
+        <v>3107218</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9052274470078125</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8948045158254349</v>
+        <v>0.8950841060617026</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9151048818268138</v>
+        <v>0.9154088929403151</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2744</v>
@@ -4354,19 +4354,19 @@
         <v>2893361</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2846999</v>
+        <v>2841433</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2940719</v>
+        <v>2938681</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8162863342682896</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8032063543938291</v>
+        <v>0.8016362496632639</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8296469997799623</v>
+        <v>0.8290722241220274</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5668</v>
@@ -4375,19 +4375,19 @@
         <v>5966020</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5907116</v>
+        <v>5912649</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6027558</v>
+        <v>6029463</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8597943297322681</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8513053382174838</v>
+        <v>0.8521028248669494</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8686628973007764</v>
+        <v>0.8689374738165702</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>150793</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130636</v>
+        <v>130356</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>171418</v>
+        <v>172415</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2183159504313144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1891333138924818</v>
+        <v>0.188727140069256</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2481772244240715</v>
+        <v>0.2496199772265649</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>512</v>
@@ -4740,19 +4740,19 @@
         <v>278434</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>258404</v>
+        <v>257925</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>298996</v>
+        <v>299239</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3792444226490067</v>
+        <v>0.3792444226490068</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3519628924336225</v>
+        <v>0.3513106659783902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4072517500178452</v>
+        <v>0.4075828396153364</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>702</v>
@@ -4761,19 +4761,19 @@
         <v>429226</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>398395</v>
+        <v>398085</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>458572</v>
+        <v>460999</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3012349737273506</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2795969785060333</v>
+        <v>0.2793796445183033</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3218299464918243</v>
+        <v>0.3235333143312322</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>539917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>519292</v>
+        <v>518295</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>560074</v>
+        <v>560354</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7816840495686855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7518227755759279</v>
+        <v>0.7503800227734354</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8108666861075181</v>
+        <v>0.8112728599307441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>729</v>
@@ -4811,19 +4811,19 @@
         <v>455746</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>435184</v>
+        <v>434941</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>475776</v>
+        <v>476255</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6207555773509932</v>
+        <v>0.6207555773509933</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5927482499821548</v>
+        <v>0.5924171603846635</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6480371075663774</v>
+        <v>0.6486893340216098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1269</v>
@@ -4832,19 +4832,19 @@
         <v>995663</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>966317</v>
+        <v>963890</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1026494</v>
+        <v>1026804</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6987650262726494</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6781700535081755</v>
+        <v>0.6764666856687679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7204030214939666</v>
+        <v>0.7206203554816969</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>200029</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>174565</v>
+        <v>176776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>227776</v>
+        <v>228181</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1907000677909386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1664238967729353</v>
+        <v>0.1685316024113689</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2171537340340279</v>
+        <v>0.2175396933842432</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>637</v>
@@ -4957,19 +4957,19 @@
         <v>417014</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>387862</v>
+        <v>389824</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>446932</v>
+        <v>445648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3891962542631899</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3619889214900412</v>
+        <v>0.3638202747694623</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4171189637108408</v>
+        <v>0.4159207706721562</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>856</v>
@@ -4978,19 +4978,19 @@
         <v>617042</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>579566</v>
+        <v>579846</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>658849</v>
+        <v>657936</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2910039825359937</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2733299390204941</v>
+        <v>0.2734619515970019</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3107206008556091</v>
+        <v>0.310290079067609</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>848888</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>821141</v>
+        <v>820736</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>874352</v>
+        <v>872141</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8092999322090614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7828462659659722</v>
+        <v>0.7824603066157568</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8335761032270647</v>
+        <v>0.8314683975886312</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>880</v>
@@ -5028,19 +5028,19 @@
         <v>654460</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>624542</v>
+        <v>625826</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>683612</v>
+        <v>681650</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6108037457368101</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5828810362891592</v>
+        <v>0.5840792293278438</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6380110785099588</v>
+        <v>0.6361797252305379</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1625</v>
@@ -5049,19 +5049,19 @@
         <v>1503349</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1461542</v>
+        <v>1462455</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1540825</v>
+        <v>1540545</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7089960174640062</v>
+        <v>0.7089960174640063</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6892793991443908</v>
+        <v>0.689709920932391</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7266700609795059</v>
+        <v>0.7265380484029982</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>185488</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160253</v>
+        <v>161328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>215561</v>
+        <v>212759</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2309732197392924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1995500587028532</v>
+        <v>0.2008886752987246</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2684205835297065</v>
+        <v>0.264931697499397</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>450</v>
@@ -5174,19 +5174,19 @@
         <v>337368</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>311724</v>
+        <v>311812</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>363578</v>
+        <v>362765</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4153448300291598</v>
+        <v>0.4153448300291597</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3837738752255999</v>
+        <v>0.3838823847199931</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4476137620258615</v>
+        <v>0.446612951263866</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>625</v>
@@ -5195,19 +5195,19 @@
         <v>522856</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>486090</v>
+        <v>484235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>564941</v>
+        <v>560897</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3236832456707928</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3009227086099454</v>
+        <v>0.2997745173734694</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3497369096251193</v>
+        <v>0.34723349471544</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>617585</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>587512</v>
+        <v>590314</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>642820</v>
+        <v>641745</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7690267802607078</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7315794164702937</v>
+        <v>0.7350683025006023</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8004499412971469</v>
+        <v>0.7991113247012754</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>597</v>
@@ -5245,19 +5245,19 @@
         <v>474891</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>448681</v>
+        <v>449494</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>500535</v>
+        <v>500447</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5846551699708402</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5523862379741387</v>
+        <v>0.5533870487361341</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6162261247744002</v>
+        <v>0.6161176152800069</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1098</v>
@@ -5266,19 +5266,19 @@
         <v>1092476</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1050391</v>
+        <v>1054435</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1129242</v>
+        <v>1131097</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6763167543292071</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6502630903748807</v>
+        <v>0.65276650528456</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6990772913900546</v>
+        <v>0.7002254826265305</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>221100</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>193449</v>
+        <v>193518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>246894</v>
+        <v>248211</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2233195861299229</v>
+        <v>0.223319586129923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.195391010638373</v>
+        <v>0.1954602022697508</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2493727157024349</v>
+        <v>0.250702150293957</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>605</v>
@@ -5391,19 +5391,19 @@
         <v>416051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>389909</v>
+        <v>389338</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>445251</v>
+        <v>446832</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3717921404845712</v>
+        <v>0.3717921404845711</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3484311429058904</v>
+        <v>0.3479207958707573</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3978865379634751</v>
+        <v>0.3992986087677172</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>853</v>
@@ -5412,19 +5412,19 @@
         <v>637151</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>597981</v>
+        <v>596306</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>677207</v>
+        <v>678668</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3020956747014586</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2835235394261207</v>
+        <v>0.2827295922037572</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3210876401267068</v>
+        <v>0.321780059498911</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>768962</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>743168</v>
+        <v>741851</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>796613</v>
+        <v>796544</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.776680413870077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.750627284297565</v>
+        <v>0.749297849706043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8046089893616269</v>
+        <v>0.8045397977302495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>957</v>
@@ -5462,19 +5462,19 @@
         <v>702990</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>673790</v>
+        <v>672209</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>729132</v>
+        <v>729703</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.628207859515429</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6021134620365248</v>
+        <v>0.6007013912322827</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6515688570941095</v>
+        <v>0.6520792041292428</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1715</v>
@@ -5483,19 +5483,19 @@
         <v>1471953</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1431897</v>
+        <v>1430436</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1511123</v>
+        <v>1512798</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6979043252985414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6789123598732931</v>
+        <v>0.678219940501089</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7164764605738794</v>
+        <v>0.7172704077962426</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>757410</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>705171</v>
+        <v>707381</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>810403</v>
+        <v>806208</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2143960285105985</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1996089109301466</v>
+        <v>0.2002346703699719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.229396527032091</v>
+        <v>0.2282088576421719</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2204</v>
@@ -5608,19 +5608,19 @@
         <v>1448866</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1394836</v>
+        <v>1396957</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1498408</v>
+        <v>1497184</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3877129738681967</v>
+        <v>0.3877129738681966</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3732548666527935</v>
+        <v>0.3738224161211947</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4009704350426853</v>
+        <v>0.4006428576963683</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3036</v>
@@ -5629,19 +5629,19 @@
         <v>2206276</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2130766</v>
+        <v>2125485</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2284622</v>
+        <v>2269865</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3034885700049371</v>
+        <v>0.303488570004937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2931016888335747</v>
+        <v>0.2923752607288115</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3142656934689764</v>
+        <v>0.3122357271449897</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2775352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2722359</v>
+        <v>2726554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2827591</v>
+        <v>2825381</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7856039714894016</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.770603472967909</v>
+        <v>0.7717911423578282</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8003910890698536</v>
+        <v>0.7997653296300281</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3163</v>
@@ -5679,19 +5679,19 @@
         <v>2288088</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2238546</v>
+        <v>2239770</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2342118</v>
+        <v>2339997</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6122870261318034</v>
+        <v>0.6122870261318033</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5990295649573146</v>
+        <v>0.5993571423036316</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6267451333472064</v>
+        <v>0.6261775838788051</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5707</v>
@@ -5700,19 +5700,19 @@
         <v>5063440</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4985094</v>
+        <v>4999851</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5138950</v>
+        <v>5144231</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6965114299950629</v>
+        <v>0.6965114299950628</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6857343065310236</v>
+        <v>0.6877642728550101</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7068983111664252</v>
+        <v>0.7076247392711883</v>
       </c>
     </row>
     <row r="18">
